--- a/304-VerificationQA/ig/StructureDefinition-tddui-patient.xlsx
+++ b/304-VerificationQA/ig/StructureDefinition-tddui-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-31T13:48:45+00:00</t>
+    <t>2025-07-31T13:59:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/304-VerificationQA/ig/StructureDefinition-tddui-patient.xlsx
+++ b/304-VerificationQA/ig/StructureDefinition-tddui-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-31T13:59:00+00:00</t>
+    <t>2025-07-31T14:26:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
